--- a/03_OpenDSS_Circuits/Commonwealth_Circuit_Opendss/Loads_Text.xlsx
+++ b/03_OpenDSS_Circuits/Commonwealth_Circuit_Opendss/Loads_Text.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="865">
   <si>
     <t>New</t>
   </si>
@@ -2578,22 +2578,37 @@
     <t>Bus1=260761233.1</t>
   </si>
   <si>
-    <t>Load.258904401-2_1</t>
-  </si>
-  <si>
-    <t>Load.258904010-2_2</t>
-  </si>
-  <si>
-    <t>Load.258908076-2_1</t>
-  </si>
-  <si>
-    <t>Load.258903838-2_1</t>
-  </si>
-  <si>
-    <t>Load.258904154-2_3</t>
-  </si>
-  <si>
     <t>NumCust=1.000000 ! KW= 28.909161</t>
+  </si>
+  <si>
+    <t>Load.258904020_2</t>
+  </si>
+  <si>
+    <t>Bus1=258904020.2</t>
+  </si>
+  <si>
+    <t>Load.258904421_1</t>
+  </si>
+  <si>
+    <t>Bus1=258904421.1</t>
+  </si>
+  <si>
+    <t>Load.258908086_1</t>
+  </si>
+  <si>
+    <t>Bus1=258908086.1</t>
+  </si>
+  <si>
+    <t>Load.258903853_1</t>
+  </si>
+  <si>
+    <t>Bus1=258903853.1</t>
+  </si>
+  <si>
+    <t>Load.258904161_3</t>
+  </si>
+  <si>
+    <t>Bus1=258904161.3</t>
   </si>
 </sst>
 </file>
@@ -2609,12 +2624,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2629,8 +2650,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2934,8 +2956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="I363" sqref="I363"/>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="E363" sqref="E363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3357,32 +3379,32 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15">
-        <v>7.1997690531177803</v>
-      </c>
-      <c r="H15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>7.1997690531177803</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7214,32 +7236,32 @@
         <v>393</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>0</v>
-      </c>
-      <c r="B148" t="s">
-        <v>854</v>
-      </c>
-      <c r="C148" t="s">
-        <v>2</v>
-      </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-      <c r="E148" t="s">
-        <v>388</v>
-      </c>
-      <c r="F148" t="s">
-        <v>4</v>
-      </c>
-      <c r="G148">
-        <v>7.1997690531177803</v>
-      </c>
-      <c r="H148" t="s">
+    <row r="148" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" s="1">
+        <v>1</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G148" s="1">
+        <v>7.1997690531177803</v>
+      </c>
+      <c r="H148" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I148" s="1" t="s">
         <v>394</v>
       </c>
     </row>
@@ -9824,32 +9846,32 @@
         <v>324</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>0</v>
-      </c>
-      <c r="B238" t="s">
-        <v>856</v>
-      </c>
-      <c r="C238" t="s">
-        <v>2</v>
-      </c>
-      <c r="D238">
-        <v>1</v>
-      </c>
-      <c r="E238" t="s">
-        <v>60</v>
-      </c>
-      <c r="F238" t="s">
-        <v>4</v>
-      </c>
-      <c r="G238">
-        <v>7.1997690531177803</v>
-      </c>
-      <c r="H238" t="s">
+    <row r="238" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238" s="1">
+        <v>1</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G238" s="1">
+        <v>7.1997690531177803</v>
+      </c>
+      <c r="H238" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I238" t="s">
+      <c r="I238" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -12840,61 +12862,61 @@
         <v>472</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>0</v>
-      </c>
-      <c r="B342" t="s">
-        <v>819</v>
-      </c>
-      <c r="C342" t="s">
-        <v>2</v>
-      </c>
-      <c r="D342">
-        <v>1</v>
-      </c>
-      <c r="E342" t="s">
-        <v>820</v>
-      </c>
-      <c r="F342" t="s">
-        <v>4</v>
-      </c>
-      <c r="G342">
-        <v>7.1997690531177803</v>
-      </c>
-      <c r="H342" t="s">
-        <v>5</v>
-      </c>
-      <c r="I342" t="s">
+    <row r="342" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D342" s="1">
+        <v>1</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G342" s="1">
+        <v>7.1997690531177803</v>
+      </c>
+      <c r="H342" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I342" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>0</v>
-      </c>
-      <c r="B343" t="s">
-        <v>821</v>
-      </c>
-      <c r="C343" t="s">
-        <v>2</v>
-      </c>
-      <c r="D343">
-        <v>1</v>
-      </c>
-      <c r="E343" t="s">
-        <v>822</v>
-      </c>
-      <c r="F343" t="s">
-        <v>4</v>
-      </c>
-      <c r="G343">
-        <v>7.1997690531177803</v>
-      </c>
-      <c r="H343" t="s">
-        <v>5</v>
-      </c>
-      <c r="I343" t="s">
+    <row r="343" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D343" s="1">
+        <v>1</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G343" s="1">
+        <v>7.1997690531177803</v>
+      </c>
+      <c r="H343" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I343" s="1" t="s">
         <v>823</v>
       </c>
     </row>
@@ -13304,62 +13326,62 @@
         <v>539</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>0</v>
-      </c>
-      <c r="B358" t="s">
-        <v>857</v>
-      </c>
-      <c r="C358" t="s">
-        <v>2</v>
-      </c>
-      <c r="D358">
-        <v>1</v>
-      </c>
-      <c r="E358" t="s">
-        <v>450</v>
-      </c>
-      <c r="F358" t="s">
-        <v>4</v>
-      </c>
-      <c r="G358">
-        <v>7.1997690531177803</v>
-      </c>
-      <c r="H358" t="s">
+    <row r="358" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D358" s="1">
+        <v>1</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G358" s="1">
+        <v>7.1997690531177803</v>
+      </c>
+      <c r="H358" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I358" t="s">
+      <c r="I358" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>0</v>
-      </c>
-      <c r="B359" t="s">
-        <v>858</v>
-      </c>
-      <c r="C359" t="s">
-        <v>2</v>
-      </c>
-      <c r="D359">
-        <v>1</v>
-      </c>
-      <c r="E359" t="s">
-        <v>407</v>
-      </c>
-      <c r="F359" t="s">
-        <v>4</v>
-      </c>
-      <c r="G359">
-        <v>7.1997690531177803</v>
-      </c>
-      <c r="H359" t="s">
+    <row r="359" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D359" s="1">
+        <v>1</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G359" s="1">
+        <v>7.1997690531177803</v>
+      </c>
+      <c r="H359" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I359" t="s">
-        <v>859</v>
+      <c r="I359" s="1" t="s">
+        <v>854</v>
       </c>
     </row>
   </sheetData>

--- a/03_OpenDSS_Circuits/Commonwealth_Circuit_Opendss/Loads_Text.xlsx
+++ b/03_OpenDSS_Circuits/Commonwealth_Circuit_Opendss/Loads_Text.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Loads_NCSU" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -2657,8 +2660,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2956,7 +2987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E363" sqref="E363"/>
     </sheetView>
   </sheetViews>
